--- a/Docs/Testing (TES)/Test_Cases/TS_Albums_Tags.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Albums_Tags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>N</t>
   </si>
@@ -211,39 +211,7 @@
     <t>F_albums_0010</t>
   </si>
   <si>
-    <t>1. В поле для добавления нового альбома ввести "qwerty"
-2. Нажать на кнопку "save"
-3. Убедиться, что в списке "Albums" есть альбом с наименованием "qwerty"
-4. В поле для добавления нового альбома ввести "1"
-5. Нажать на кнопку "save"
-6. Убедиться, что в списке "Albums" есть альбом с наименованием "1"
-7. В поле для добавления нового альбома ввести "привет мир"
-8. Нажать на кнопку "save"
-9. Убедиться, что в списке "Albums" есть альбом с наименованием "привет мир"</t>
-  </si>
-  <si>
     <t>Добавление уже существующего альбома</t>
-  </si>
-  <si>
-    <t>1. В поле для добавления нового альбома ввести "qwerty"
-2. Нажать на кнопку "save"
-3. Убедиться, что в списке "Albums" есть альбом с наименованием "qwerty"
-4. В поле для добавления нового альбома ввести "qwerty"
-5. Нажать на кнопку "save"
-6. Убедиться, что в списке "Albums" есть только один альбом с наименованием "qwerty"</t>
-  </si>
-  <si>
-    <t>Активация кнопки "save"</t>
-  </si>
-  <si>
-    <t>1. В поле для добавления нового альбома ввести "qwerty"
-2. Убедиться, что кнопка "save" активна
-1. В поле для добавления нового альбома ввести "     "
-2. Убедиться, что кнопка "save" активна
-1. В поле для добавления нового альбома ввести "(_)"
-2. Убедиться, что кнопка "save" активна
-1. В поле для добавления нового альбома ввести "опа опа"
-2. Убедиться, что кнопка "save" активна</t>
   </si>
   <si>
     <t>TS_albums_tags_013</t>
@@ -273,11 +241,6 @@
     <t>F_albums_0015</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "delete"
-3. Убедиться, что отобразилось уведомление об удалении альбома «Do you want to delete album &lt;ALBUM&gt;?» </t>
-  </si>
-  <si>
     <t>TS_albums_tags_015</t>
   </si>
   <si>
@@ -299,13 +262,6 @@
   </si>
   <si>
     <t>F_albums_0014</t>
-  </si>
-  <si>
-    <t>1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "delete"
-3. Перейти на главную страницу сайта
-4. Нажать на вкладку "Albums"
-5. Убедиться, что удаленного альбома нет в выпавшем списке</t>
   </si>
   <si>
     <t>TS_albums_tags_017</t>
@@ -396,6 +352,223 @@
 4. Перейти на главную страницу сайта
 5. Нажать на вкладку "Albums"
 6. Убедиться в наличии альбома "qwerty" </t>
+  </si>
+  <si>
+    <t>ver 1.1</t>
+  </si>
+  <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Albums, tags</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Fail
+2. Pass
+3. Fail
+4. Fail
+5. Fail</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked</t>
+  </si>
+  <si>
+    <t>Активация кнопки "new"</t>
+  </si>
+  <si>
+    <t>1. В поле для добавления нового альбома ввести "qwerty"
+2. Нажать на кнопку "new"
+3. Убедиться, что в списке "Albums" есть альбом с наименованием "qwerty"
+4. В поле для добавления нового альбома ввести "1"
+5. Нажать на кнопку "new"
+6. Убедиться, что в списке "Albums" есть альбом с наименованием "1"
+7. В поле для добавления нового альбома ввести "привет мир"
+8. Нажать на кнопку "new"
+9. Убедиться, что в списке "Albums" есть альбом с наименованием "привет мир"</t>
+  </si>
+  <si>
+    <t>1. В поле для добавления нового альбома ввести "qwerty"
+2. Нажать на кнопку "new"
+3. Убедиться, что в списке "Albums" есть альбом с наименованием "qwerty"
+4. В поле для добавления нового альбома ввести "qwerty"
+5. Нажать на кнопку "new"
+6. Убедиться, что в списке "Albums" есть только один альбом с наименованием "qwerty"</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Fail
+4. Pass
+5. Pass
+6. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass
+5. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Pass
+4. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked
+4. Pass
+5. Blocked
+6. Blocked
+7. Pass
+8. Blocked
+9. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked
+4. Pass
+5. Blocked
+6. Fail</t>
+  </si>
+  <si>
+    <t>1. В поле для добавления нового альбома ввести "qwerty"
+2. Убедиться, что кнопка "new" активна
+3. В поле для добавления нового альбома ввести "     "
+4. Убедиться, что кнопка "new" активна
+5. В поле для добавления нового альбома ввести "(_)"
+6. Убедиться, что кнопка "new" активна
+7. В поле для добавления нового альбома ввести "опа опа"
+8. Убедиться, что кнопка "new" активна</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked
+7. Blocked
+8. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Fail
+4. Pass</t>
+  </si>
+  <si>
+    <t>1. Выбрать один альбом из списка "Albums"
+2. Нажать на кнопку "delete"
+3. Убедиться, что отобразилось уведомление об удалении альбома</t>
+  </si>
+  <si>
+    <t>Правилное сообщение об удалении
+ альбома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выбрать один альбом из списка "Albums"
+2. Нажать на кнопку "delete"
+3. Убедится, что появилось сообщение «Do you want to delete album &lt;ALBUM&gt;?» 
+4. Убедится, что отображается кнопка "Delete"
+5. Убедится, что отображается кнопка "Cancel" </t>
+  </si>
+  <si>
+    <t>TS_albums_tags_024</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass</t>
+  </si>
+  <si>
+    <t>1. Удалить один альбом
+2. Перейти на главную страницу сайта
+3. Нажать на вкладку "Albums"
+4. Убедиться, что удаленного альбома нет в выпавшем списке</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked
+4. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Blocked
+4. Pass
+5. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Pass
+4. Pass
+5. Pass
+6. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Fail
+4. Fail
+5. Fail</t>
+  </si>
+  <si>
+    <t>#135</t>
+  </si>
+  <si>
+    <t>#136</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked
+7. Blocked</t>
+  </si>
+  <si>
+    <t>#137</t>
+  </si>
+  <si>
+    <t>#138</t>
+  </si>
+  <si>
+    <t>#139</t>
   </si>
 </sst>
 </file>
@@ -517,8 +690,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:F25"/>
   <tableColumns count="6">
     <tableColumn id="1" name="N" dataDxfId="16"/>
     <tableColumn id="2" name="Test ID" dataDxfId="15"/>
@@ -532,8 +705,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I27"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -834,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F26:F30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1066,7 +1239,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="150">
@@ -1077,7 +1250,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -1086,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="150">
@@ -1097,7 +1270,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
@@ -1106,7 +1279,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
@@ -1114,39 +1287,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="75">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60">
@@ -1154,39 +1327,39 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
@@ -1194,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -1206,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
@@ -1214,19 +1387,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75">
@@ -1234,19 +1407,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="75">
@@ -1254,19 +1427,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="75">
@@ -1274,10 +1447,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
@@ -1286,7 +1459,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="90">
@@ -1294,19 +1467,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="90">
@@ -1314,19 +1487,39 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="90">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1340,15 +1533,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
@@ -1387,16 +1581,765 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>I2</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>H3</f>
+        <v>#135</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I25" si="1">I3</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>H4</f>
+        <v>#135</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>H7</f>
+        <v>#135</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="105">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>H8</f>
+        <v>#135</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>H7</f>
+        <v>#135</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>H13</f>
+        <v>#135</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>H18</f>
+        <v>#135</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" ref="H20:H22" si="2">H19</f>
+        <v>#135</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#135</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60">
+      <c r="A22" s="1">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#135</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="75">
+      <c r="A23" s="1">
+        <f t="shared" ref="A23:A25" si="3">A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="90">
+      <c r="A24" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75">
+      <c r="A25" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Albums_Tags.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Albums_Tags.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Тестирование" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="139">
   <si>
     <t>N</t>
   </si>
@@ -70,10 +70,6 @@
     <t>TS_albums_tags_003</t>
   </si>
   <si>
-    <t>Убедиться, что в браузере отображается 
-страница "Управление альбомами и тегами"</t>
-  </si>
-  <si>
     <t>albums, tags</t>
   </si>
   <si>
@@ -87,10 +83,6 @@
     <t>TS_albums_tags_004</t>
   </si>
   <si>
-    <t>1. В списке альбомов нажать на один альбом
-2. Убедиться, что в списке "Selected Tags" отобразились теги</t>
-  </si>
-  <si>
     <t>Проверка на правильное добавление
  тегов альбома в список тегов в админке</t>
   </si>
@@ -98,24 +90,10 @@
     <t>F_albums_0048</t>
   </si>
   <si>
-    <t>1. В списке альбомов нажать на один альбом
-2. Удалить все теги данного альбома из списка "Selected Tags" (с помощью кнопки "&lt;-")
-3. Нажать на кнопку "save"
-4. Добавить первые два тега из списка тегов ("Tags") для данного альбома (с помощью кнопки "-&gt;")
-5. Нажать на кнопку "save"
-6. Убедиться, что теги добавились к альбому</t>
-  </si>
-  <si>
     <t>TS_albums_tags_005</t>
   </si>
   <si>
     <t>Убедиться, что теги добавились к альбому</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. В админке сайта добавить несколько тегов к тестовому альбому
-2. Перейти на сайт проекта
-3. Выбрать тестовый альбом
-4. Убедиться, что в списке тегов отображаются ранее выбраные теги </t>
   </si>
   <si>
     <t>TS_albums_tags_006</t>
@@ -253,11 +231,6 @@
     <t>F_albums_0016</t>
   </si>
   <si>
-    <t>1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "delete"
-3. Убедиться, что удаленного альбома нет в списке "Albums"</t>
-  </si>
-  <si>
     <t>Проверка на удаление альбома на сайте</t>
   </si>
   <si>
@@ -287,56 +260,16 @@
 имени альбома </t>
   </si>
   <si>
-    <t>1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "rename"
-3. Убедиться, что появилось поле для редактирования имени альбома</t>
-  </si>
-  <si>
-    <t>Правильное перенаименнование альбома</t>
-  </si>
-  <si>
     <t>F_albums_0020</t>
   </si>
   <si>
-    <t>1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "rename"
-3. Ввести "qwerty"
-4. Убедиться, что в списке "Albums" выбранный ранее альбом переименовался на "qwerty"</t>
-  </si>
-  <si>
-    <t>Перенаиенование альбома на уже
- существующий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "rename"
-3. Ввести наименование уже существующего альбома
-4. Убедиться, что появилось сообщение об ошибке «Please enter new album name» </t>
-  </si>
-  <si>
     <t>TS_albums_tags_021</t>
   </si>
   <si>
     <t>TS_albums_tags_022</t>
   </si>
   <si>
-    <t>Перенаиенование альбома на то же самое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Выбрать один альбом из списка альбомов "Albums"
-2. Нажать на кнопку "rename"
-3. Ввести текущее наименование выбранного альбома
-4. Убедиться, что альбом остался с таким же наименованием  </t>
-  </si>
-  <si>
     <t>Сохранение тегов при перенаименовании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Выбрать один альбом из списка "Albums"
-2. Запомнить список "Selected Tags"
-3. Нажать на кнопку "rename"
-4. Ввести "qwerty"
-5. Убедиться, что список "Selected Tags" не изменился после перенаименования </t>
   </si>
   <si>
     <t>TS_albums_tags_023</t>
@@ -344,14 +277,6 @@
   <si>
     <t>Проверка на отображение
  перенаименованного альбома на сайте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "rename"
-3. Ввести "qwerty"
-4. Перейти на главную страницу сайта
-5. Нажать на вкладку "Albums"
-6. Убедиться в наличии альбома "qwerty" </t>
   </si>
   <si>
     <t>ver 1.1</t>
@@ -391,25 +316,6 @@
   </si>
   <si>
     <t>Активация кнопки "new"</t>
-  </si>
-  <si>
-    <t>1. В поле для добавления нового альбома ввести "qwerty"
-2. Нажать на кнопку "new"
-3. Убедиться, что в списке "Albums" есть альбом с наименованием "qwerty"
-4. В поле для добавления нового альбома ввести "1"
-5. Нажать на кнопку "new"
-6. Убедиться, что в списке "Albums" есть альбом с наименованием "1"
-7. В поле для добавления нового альбома ввести "привет мир"
-8. Нажать на кнопку "new"
-9. Убедиться, что в списке "Albums" есть альбом с наименованием "привет мир"</t>
-  </si>
-  <si>
-    <t>1. В поле для добавления нового альбома ввести "qwerty"
-2. Нажать на кнопку "new"
-3. Убедиться, что в списке "Albums" есть альбом с наименованием "qwerty"
-4. В поле для добавления нового альбома ввести "qwerty"
-5. Нажать на кнопку "new"
-6. Убедиться, что в списке "Albums" есть только один альбом с наименованием "qwerty"</t>
   </si>
   <si>
     <t>1. Pass
@@ -483,22 +389,6 @@
 4. Pass</t>
   </si>
   <si>
-    <t>1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "delete"
-3. Убедиться, что отобразилось уведомление об удалении альбома</t>
-  </si>
-  <si>
-    <t>Правилное сообщение об удалении
- альбома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Выбрать один альбом из списка "Albums"
-2. Нажать на кнопку "delete"
-3. Убедится, что появилось сообщение «Do you want to delete album &lt;ALBUM&gt;?» 
-4. Убедится, что отображается кнопка "Delete"
-5. Убедится, что отображается кнопка "Cancel" </t>
-  </si>
-  <si>
     <t>TS_albums_tags_024</t>
   </si>
   <si>
@@ -523,21 +413,6 @@
 2. Blocked
 3. Blocked
 4. Blocked</t>
-  </si>
-  <si>
-    <t>1. Pass
-2. Pass
-3. Blocked
-4. Pass
-5. Pass</t>
-  </si>
-  <si>
-    <t>1. Pass
-2. Blocked
-3. Pass
-4. Pass
-5. Pass
-6. Pass</t>
   </si>
   <si>
     <t>1. Pass
@@ -569,6 +444,171 @@
   </si>
   <si>
     <t>#139</t>
+  </si>
+  <si>
+    <t>ver 1.2</t>
+  </si>
+  <si>
+    <t>TS_albums_tags_025</t>
+  </si>
+  <si>
+    <t>Убедиться, что в браузере отображается 
+страница "Управление альбомами и тегами" (интерфейс страницы)</t>
+  </si>
+  <si>
+    <t>1. В списке альбомов нажать на один альбом
+2. Убедиться, что  отобразился список тегов для выбранного альбома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В админке сайта добавить несколько тегов к тестовому альбому
+2. Перейти на сайт проекта
+3. Выбрать тестовый альбом
+4. Убедиться, что в списке тегов отображаются ранее выбранные теги </t>
+  </si>
+  <si>
+    <t>1. В списке альбомов нажать на один альбом
+2. Удалить все теги данного альбома из списка 
+3. Нажать на кнопку сохранения
+4. Добавить первые два тега из списка тегов для данного альбома
+5. Сохранить изменения
+6. Убедиться, что теги добавились к альбому</t>
+  </si>
+  <si>
+    <t>1. В поле для добавления нового альбома ввести "qwerty"
+2. Сохранить альбом
+3. Убедиться, что в списке альбомов есть альбом с наименованием "qwerty"
+4. В поле для добавления нового альбома ввести "1"
+5. Сохранить альбом
+6. Убедиться, что в списке альбомов есть альбом с наименованием "1"
+7. В поле для добавления нового альбома ввести "привет мир"
+8. Сохранить альбом
+9. Убедиться, что в списке альбомов есть альбом с наименованием "привет мир"</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass
+5. Pass
+6. Pass
+7. Pass
+8. Pass</t>
+  </si>
+  <si>
+    <t>1. В поле для добавления нового альбома ввести "qwerty"
+2. Сохранить альбом
+3. Убедиться, что в списке альбомов есть альбом с наименованием "qwerty"
+4. В поле для добавления нового альбома ввести "qwerty"
+5. Сохранить альбом
+6. Убедиться, что в списке альбомов есть только один альбом с наименованием "qwerty"</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass
+5. Pass
+6. Fail</t>
+  </si>
+  <si>
+    <t>Удаление нескольких альбомов</t>
+  </si>
+  <si>
+    <t>1. Выбрать несколько альбомов из списка альбомов
+2. Нажать на кнопку удаления
+3. Убедиться, что выбранные альбомы удалились</t>
+  </si>
+  <si>
+    <t>1. Fail
+2. Fail
+3. Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+</t>
+  </si>
+  <si>
+    <t>1. Выбрать один альбом из списка альбомов
+2. Нажать на кнопку удаления
+3. Убедиться, что удаленного альбома нет в списке альбомов</t>
+  </si>
+  <si>
+    <t>1. Выбрать один альбом из списка альбомов
+2. Нажать на кнопку удаления
+3. Убедиться, что отобразилось уведомление об удалении альбома</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Fail</t>
+  </si>
+  <si>
+    <t>1. Выбрать один альбом из списка альбомов
+2. Переименовать его на наименование уже существующего альбома
+3. Убедиться, что появилось сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>1. Выбрать один альбом из списка альбомов
+2. Переименовать выбранный альбом на "qwerty"
+3. Убедиться, что в списке альбомов выбранный ранее альбом переименовался на "qwerty"</t>
+  </si>
+  <si>
+    <t>1. Выбрать один альбом из списка альбомов
+2. Нажать на кнопку переименования
+3. Убедиться, что появилось поле для редактирования имени альбома</t>
+  </si>
+  <si>
+    <t>Правильное переименнование альбома</t>
+  </si>
+  <si>
+    <t>Переименование альбома на уже
+ существующий</t>
+  </si>
+  <si>
+    <t>Переименование альбома на то же самое</t>
+  </si>
+  <si>
+    <t>#157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выбрать один альбом из списка альбомов
+2. Переименовать выбранный альбом на текущее наименование выбранного альбома
+3. Убедиться, что альбом остался с таким же наименованием  </t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass
+5. Pass
+6. Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выбрать один альбом из списка альбомов
+2. Запомнить список выбранных тегов
+3. Переименовать выбранный альбом на "qwerty"
+4. Убедиться, что список тегов альбома не изменился после перенаименования </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выбрать один альбом из списка альбомов
+2. Переименовать выбранный альбом на "qwerty"
+3. Перейти на главную страницу сайта
+4. Нажать на вкладку "Albums"
+5. Убедиться в наличии альбома "qwerty" </t>
+  </si>
+  <si>
+    <t>Правильное сообщение об удалении
+ альбома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выбрать один альбом из списка альбомов
+2. Нажать на кнопку удаления
+3. Убедится, что появилось сообщение «Do you want to delete album &lt;ALBUM&gt;?» 
+4. Убедится, что отображается кнопка "Delete"
+5. Убедится, что отображается кнопка "Cancel" </t>
   </si>
 </sst>
 </file>
@@ -690,8 +730,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:F25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:F26"/>
   <tableColumns count="6">
     <tableColumn id="1" name="N" dataDxfId="16"/>
     <tableColumn id="2" name="Test ID" dataDxfId="15"/>
@@ -705,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I54"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -1007,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,16 +1110,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -1090,36 +1130,36 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="120">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90">
@@ -1127,19 +1167,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60">
@@ -1147,19 +1187,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60">
@@ -1167,19 +1207,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="120">
@@ -1187,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75">
@@ -1207,19 +1247,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="210">
@@ -1227,19 +1267,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="150">
@@ -1247,19 +1287,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="150">
@@ -1267,19 +1307,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
@@ -1287,19 +1327,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
@@ -1307,19 +1347,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60">
@@ -1327,19 +1367,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75">
@@ -1347,19 +1387,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
@@ -1367,19 +1407,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
@@ -1387,59 +1427,59 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="75">
@@ -1447,59 +1487,59 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="90">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="90">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="90">
@@ -1507,19 +1547,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>115</v>
+      <c r="F26" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1589,23 +1649,23 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75">
@@ -1617,22 +1677,22 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>I2</f>
@@ -1648,19 +1708,19 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>H3</f>
@@ -1677,25 +1737,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1708,22 +1768,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="str">
@@ -1737,22 +1797,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>H4</f>
@@ -1769,22 +1829,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>H7</f>
@@ -1801,25 +1861,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1832,22 +1892,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>H8</f>
@@ -1864,25 +1924,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1895,25 +1955,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1926,22 +1986,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>H7</f>
@@ -1958,25 +2018,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1989,22 +2049,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="str">
@@ -2018,22 +2078,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="str">
@@ -2047,22 +2107,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="str">
@@ -2076,22 +2136,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>H13</f>
@@ -2108,22 +2168,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>H18</f>
@@ -2140,22 +2200,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" ref="H20:H22" si="2">H19</f>
@@ -2172,22 +2232,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2204,22 +2264,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2232,26 +2292,26 @@
     </row>
     <row r="23" spans="1:9" ht="75">
       <c r="A23" s="1">
-        <f t="shared" ref="A23:A25" si="3">A22+1</f>
+        <f t="shared" ref="A23:A53" si="3">A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="str">
@@ -2265,22 +2325,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="str">
@@ -2294,52 +2354,835 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="75">
+      <c r="A27" s="1">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>I26</f>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="str">
+        <f t="shared" ref="I28:I50" si="4">I27</f>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="90">
+      <c r="A29" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75">
+      <c r="A30" s="1">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60">
+      <c r="A31" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60">
+      <c r="A32" s="1">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105">
+      <c r="A33" s="1">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45">
+      <c r="A34" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="120">
+      <c r="A35" s="1">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="90">
+      <c r="A36" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="120">
+      <c r="A37" s="1">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75">
+      <c r="A38" s="1">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45">
+      <c r="A39" s="1">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45">
+      <c r="A40" s="1">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45">
+      <c r="A41" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60">
+      <c r="A42" s="1">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="1">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45">
+      <c r="A44" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45">
+      <c r="A45" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45">
+      <c r="A47" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75">
+      <c r="A48" s="1">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="90">
+      <c r="A49" s="1">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="75">
+      <c r="A50" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ver 1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
